--- a/field_scale/field_data/полевые данные общая/Сухое просеивание архан 2020(по ключевым участкам).xlsx
+++ b/field_scale/field_data/полевые данные общая/Сухое просеивание архан 2020(по ключевым участкам).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RESEARCH_WORK\our_data\Полевые данные 2020\Ставропольский край\Агрегатный состав\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\field_scale\field_data\полевые данные общая\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428A7603-05D6-4D63-8203-39A8B8752CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14187DE9-26B9-4DAE-8DA6-6EE10B8826AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="archangelky" localSheetId="0">Sheet1!$A$1:$O$11</definedName>
+    <definedName name="archangelky" localSheetId="0">Sheet1!$A$1:$N$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,41 +54,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>размер_агрегатов</t>
   </si>
   <si>
-    <t>СПК_Архангельский_поле_1</t>
-  </si>
-  <si>
-    <t>СПК_Архангельский_поле_1_%</t>
-  </si>
-  <si>
-    <t>СПК_Архангельский_поле_2</t>
-  </si>
-  <si>
-    <t>СПК_Архангельский_поле_2_%</t>
-  </si>
-  <si>
-    <t>СПК_Архангельский_поле_3</t>
-  </si>
-  <si>
-    <t>СПК_Архангельский_поле_3_%</t>
-  </si>
-  <si>
-    <t>СПК_Архангельский_поле_4</t>
-  </si>
-  <si>
-    <t>СПК_Архангельский_поле_4_%</t>
-  </si>
-  <si>
-    <t>СПК_Архангельский_поле_5</t>
-  </si>
-  <si>
-    <t>СПК_Архангельский_поле_5_%</t>
-  </si>
-  <si>
     <t>&gt;10мм</t>
   </si>
   <si>
@@ -116,7 +86,10 @@
     <t>&lt;0.25</t>
   </si>
   <si>
-    <t>сумма</t>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>вес</t>
   </si>
 </sst>
 </file>
@@ -152,9 +125,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -439,29 +411,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:C54"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,604 +440,505 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1888</v>
       </c>
-      <c r="C2" s="1">
-        <v>48.004068141367902</v>
+      <c r="C2">
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>203</v>
       </c>
-      <c r="C3" s="1">
-        <v>5.16145436053902</v>
+      <c r="C3">
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>186</v>
       </c>
-      <c r="C4" s="1">
-        <v>4.72921434019832</v>
+      <c r="C4">
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>343</v>
       </c>
-      <c r="C5" s="1">
-        <v>8.7210780574624902</v>
+      <c r="C5">
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>418</v>
       </c>
-      <c r="C6" s="1">
-        <v>10.628019323671399</v>
+      <c r="C6">
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>817</v>
       </c>
-      <c r="C7" s="1">
-        <v>20.7729468599033</v>
+      <c r="C7">
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>42</v>
       </c>
-      <c r="C8" s="1">
-        <v>1.0678871090770401</v>
+      <c r="C8">
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>28</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.71192473938469303</v>
+      <c r="C9">
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.203407068395626</v>
+      <c r="C10">
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>3933</v>
+        <v>1526</v>
       </c>
       <c r="C11">
-        <v>99.999999999999901</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12">
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>1526</v>
-      </c>
-      <c r="C13" s="1">
-        <v>55.470737913485998</v>
+        <v>152</v>
+      </c>
+      <c r="C13">
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>200</v>
-      </c>
-      <c r="C14" s="1">
-        <v>7.2700836059614602</v>
+        <v>274</v>
+      </c>
+      <c r="C14">
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>152</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5.5252635405307098</v>
+        <v>151</v>
+      </c>
+      <c r="C15">
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>274</v>
-      </c>
-      <c r="C16" s="1">
-        <v>9.9600145401672098</v>
+        <v>320</v>
+      </c>
+      <c r="C16">
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>151</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5.4889131225009002</v>
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>320</v>
-      </c>
-      <c r="C18" s="1">
-        <v>11.632133769538299</v>
+        <v>58</v>
+      </c>
+      <c r="C18">
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.94511086877498995</v>
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2.10832424572882</v>
+        <v>3540</v>
+      </c>
+      <c r="C20">
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.59941839331152</v>
+        <v>304</v>
+      </c>
+      <c r="C21">
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>2751</v>
+        <v>302</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>394</v>
+      </c>
+      <c r="C23">
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>3540</v>
-      </c>
-      <c r="C24" s="1">
-        <v>64.539653600729196</v>
+        <v>225</v>
+      </c>
+      <c r="C24">
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>304</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5.5423883318140303</v>
+        <v>431</v>
+      </c>
+      <c r="C25">
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>302</v>
-      </c>
-      <c r="C26" s="1">
-        <v>5.5059252506836804</v>
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>394</v>
-      </c>
-      <c r="C27" s="1">
-        <v>7.1832269826800301</v>
+        <v>94</v>
+      </c>
+      <c r="C27">
+        <v>525</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>225</v>
-      </c>
-      <c r="C28" s="1">
-        <v>4.1020966271649897</v>
+        <v>145</v>
+      </c>
+      <c r="C28">
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>431</v>
-      </c>
-      <c r="C29" s="1">
-        <v>7.85779398359161</v>
+        <v>2081</v>
+      </c>
+      <c r="C29">
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>50</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.91157702825888698</v>
+        <v>241</v>
+      </c>
+      <c r="C30">
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>94</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1.7137648131267</v>
+        <v>193</v>
+      </c>
+      <c r="C31">
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>145</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2.6435733819507701</v>
+        <v>263</v>
+      </c>
+      <c r="C32">
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>5485</v>
+        <v>162</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>309</v>
+      </c>
+      <c r="C34">
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>2081</v>
-      </c>
-      <c r="C35" s="1">
-        <v>59.816039091693</v>
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>241</v>
-      </c>
-      <c r="C36" s="1">
-        <v>6.9272779534348903</v>
+        <v>76</v>
+      </c>
+      <c r="C36">
+        <v>527</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>193</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5.5475711411325097</v>
+        <v>119</v>
+      </c>
+      <c r="C37">
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>263</v>
-      </c>
-      <c r="C38" s="1">
-        <v>7.5596435757401501</v>
+        <v>1442</v>
+      </c>
+      <c r="C38">
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>162</v>
-      </c>
-      <c r="C39" s="1">
-        <v>4.6565104915205504</v>
+        <v>357</v>
+      </c>
+      <c r="C39">
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>309</v>
-      </c>
-      <c r="C40" s="1">
-        <v>8.8818626041966002</v>
+        <v>278</v>
+      </c>
+      <c r="C40">
+        <v>526</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>35</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1.00603621730382</v>
+        <v>320</v>
+      </c>
+      <c r="C41">
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>76</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2.1845357861454402</v>
+        <v>150</v>
+      </c>
+      <c r="C42">
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>119</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3.4205231388329902</v>
+        <v>324</v>
+      </c>
+      <c r="C43">
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>3479</v>
+        <v>27</v>
       </c>
       <c r="C44">
-        <v>100</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>526</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B46">
-        <v>1442</v>
-      </c>
-      <c r="C46" s="1">
-        <v>47.954772198204097</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47">
-        <v>357</v>
-      </c>
-      <c r="C47" s="1">
-        <v>11.8722979714</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48">
-        <v>278</v>
-      </c>
-      <c r="C48" s="1">
-        <v>9.2450947788493494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49">
-        <v>320</v>
-      </c>
-      <c r="C49" s="1">
-        <v>10.641835716661101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50">
-        <v>150</v>
-      </c>
-      <c r="C50" s="1">
-        <v>4.9883604921849001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51">
-        <v>324</v>
-      </c>
-      <c r="C51" s="1">
-        <v>10.7748586631193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52">
-        <v>27</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.89790488859328199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53">
-        <v>47</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1.5630196208845999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54">
         <v>62</v>
       </c>
-      <c r="C54" s="1">
-        <v>2.0618556701030899</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55">
-        <v>3007</v>
-      </c>
-      <c r="C55">
-        <v>100</v>
+      <c r="C46">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
